--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vcan-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H2">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I2">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J2">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>326.5603015345843</v>
+        <v>1107.93239687601</v>
       </c>
       <c r="R2">
-        <v>2939.042713811258</v>
+        <v>9971.391571884091</v>
       </c>
       <c r="S2">
-        <v>0.002041400674285835</v>
+        <v>0.004024804308856762</v>
       </c>
       <c r="T2">
-        <v>0.002041400674285835</v>
+        <v>0.004024804308856763</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H3">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I3">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J3">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>501.6958023313181</v>
+        <v>912.3897838208095</v>
       </c>
       <c r="R3">
-        <v>4515.262220981863</v>
+        <v>8211.508054387286</v>
       </c>
       <c r="S3">
-        <v>0.003136211426657634</v>
+        <v>0.003314453430221197</v>
       </c>
       <c r="T3">
-        <v>0.003136211426657634</v>
+        <v>0.003314453430221198</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H4">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I4">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J4">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>250.6938847971262</v>
+        <v>526.3865538334821</v>
       </c>
       <c r="R4">
-        <v>2256.244963174136</v>
+        <v>4737.47898450134</v>
       </c>
       <c r="S4">
-        <v>0.001567142922943407</v>
+        <v>0.001912213124164431</v>
       </c>
       <c r="T4">
-        <v>0.001567142922943407</v>
+        <v>0.001912213124164431</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H5">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I5">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J5">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>399.0238730564472</v>
+        <v>532.0476673101808</v>
       </c>
       <c r="R5">
-        <v>3591.214857508025</v>
+        <v>4788.429005791627</v>
       </c>
       <c r="S5">
-        <v>0.002494386487536086</v>
+        <v>0.001932778344549888</v>
       </c>
       <c r="T5">
-        <v>0.002494386487536086</v>
+        <v>0.001932778344549889</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H6">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I6">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J6">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>200.4383639539526</v>
+        <v>400.7550285533301</v>
       </c>
       <c r="R6">
-        <v>1803.945275585574</v>
+        <v>3606.795256979971</v>
       </c>
       <c r="S6">
-        <v>0.001252984546515722</v>
+        <v>0.001455829408243187</v>
       </c>
       <c r="T6">
-        <v>0.001252984546515722</v>
+        <v>0.001455829408243187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.444734333333333</v>
+        <v>6.264633666666666</v>
       </c>
       <c r="H7">
-        <v>10.334203</v>
+        <v>18.793901</v>
       </c>
       <c r="I7">
-        <v>0.01213700884209764</v>
+        <v>0.01507580695362319</v>
       </c>
       <c r="J7">
-        <v>0.01213700884209764</v>
+        <v>0.0150758069536232</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>263.1298327418811</v>
+        <v>670.4977753238713</v>
       </c>
       <c r="R7">
-        <v>2368.16849467693</v>
+        <v>6034.479977914842</v>
       </c>
       <c r="S7">
-        <v>0.001644882784158956</v>
+        <v>0.002435728337587728</v>
       </c>
       <c r="T7">
-        <v>0.001644882784158956</v>
+        <v>0.002435728337587728</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>460.130753</v>
       </c>
       <c r="I8">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J8">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>14540.10894163927</v>
+        <v>27125.48970262499</v>
       </c>
       <c r="R8">
-        <v>130860.9804747534</v>
+        <v>244129.4073236249</v>
       </c>
       <c r="S8">
-        <v>0.09089343701046411</v>
+        <v>0.09853921425423637</v>
       </c>
       <c r="T8">
-        <v>0.09089343701046411</v>
+        <v>0.09853921425423638</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>460.130753</v>
       </c>
       <c r="I9">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J9">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>22338.02329058648</v>
@@ -1013,10 +1013,10 @@
         <v>201042.2096152783</v>
       </c>
       <c r="S9">
-        <v>0.1396399243671894</v>
+        <v>0.08114770598350564</v>
       </c>
       <c r="T9">
-        <v>0.1396399243671894</v>
+        <v>0.08114770598350565</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>460.130753</v>
       </c>
       <c r="I10">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J10">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>11162.15406105308</v>
+        <v>12887.512889659</v>
       </c>
       <c r="R10">
-        <v>100459.3865494777</v>
+        <v>115987.616006931</v>
       </c>
       <c r="S10">
-        <v>0.06977709390773253</v>
+        <v>0.04681668083269472</v>
       </c>
       <c r="T10">
-        <v>0.06977709390773251</v>
+        <v>0.04681668083269473</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>460.130753</v>
       </c>
       <c r="I11">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J11">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>17766.55201900325</v>
+        <v>13026.11383295714</v>
       </c>
       <c r="R11">
-        <v>159898.9681710293</v>
+        <v>117235.0244966142</v>
       </c>
       <c r="S11">
-        <v>0.1110626463195086</v>
+        <v>0.04732017876756049</v>
       </c>
       <c r="T11">
-        <v>0.1110626463195086</v>
+        <v>0.0473201787675605</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>460.130753</v>
       </c>
       <c r="I12">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J12">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>8924.52522330172</v>
+        <v>9811.67842997472</v>
       </c>
       <c r="R12">
-        <v>80320.72700971547</v>
+        <v>88305.10586977247</v>
       </c>
       <c r="S12">
-        <v>0.05578918111881902</v>
+        <v>0.03564304621241126</v>
       </c>
       <c r="T12">
-        <v>0.05578918111881902</v>
+        <v>0.03564304621241127</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>460.130753</v>
       </c>
       <c r="I13">
-        <v>0.5404007466934845</v>
+        <v>0.3691007207951812</v>
       </c>
       <c r="J13">
-        <v>0.5404007466934844</v>
+        <v>0.3691007207951813</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>11715.86508183416</v>
+        <v>16415.78543191208</v>
       </c>
       <c r="R13">
-        <v>105442.7857365074</v>
+        <v>147742.0688872087</v>
       </c>
       <c r="S13">
-        <v>0.07323846396977075</v>
+        <v>0.05963389474477278</v>
       </c>
       <c r="T13">
-        <v>0.07323846396977075</v>
+        <v>0.05963389474477278</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H14">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I14">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J14">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>8692.180800217566</v>
+        <v>42035.29788619156</v>
       </c>
       <c r="R14">
-        <v>78229.62720195808</v>
+        <v>378317.6809757241</v>
       </c>
       <c r="S14">
-        <v>0.05433674473962147</v>
+        <v>0.1527023205869436</v>
       </c>
       <c r="T14">
-        <v>0.05433674473962147</v>
+        <v>0.1527023205869437</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H15">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I15">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J15">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>13353.82959925457</v>
+        <v>34616.3506540352</v>
       </c>
       <c r="R15">
-        <v>120184.4663932912</v>
+        <v>311547.1558863168</v>
       </c>
       <c r="S15">
-        <v>0.08347774245709842</v>
+        <v>0.1257513884981643</v>
       </c>
       <c r="T15">
-        <v>0.08347774245709842</v>
+        <v>0.1257513884981643</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H16">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I16">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J16">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>6672.815286872094</v>
+        <v>19971.26869479246</v>
       </c>
       <c r="R16">
-        <v>60055.33758184885</v>
+        <v>179741.4182531321</v>
       </c>
       <c r="S16">
-        <v>0.04171324426757641</v>
+        <v>0.0725499574908922</v>
       </c>
       <c r="T16">
-        <v>0.0417132442675764</v>
+        <v>0.07254995749089223</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H17">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I17">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J17">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>10620.97147727671</v>
+        <v>20186.05309141408</v>
       </c>
       <c r="R17">
-        <v>95588.74329549039</v>
+        <v>181674.4778227267</v>
       </c>
       <c r="S17">
-        <v>0.06639404187648053</v>
+        <v>0.07333020831434985</v>
       </c>
       <c r="T17">
-        <v>0.06639404187648051</v>
+        <v>0.07333020831434987</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H18">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I18">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J18">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>5335.14481276609</v>
+        <v>15204.76976043663</v>
       </c>
       <c r="R18">
-        <v>48016.30331489481</v>
+        <v>136842.9278439297</v>
       </c>
       <c r="S18">
-        <v>0.03335117026476608</v>
+        <v>0.055234618122489</v>
       </c>
       <c r="T18">
-        <v>0.03335117026476608</v>
+        <v>0.05523461812248903</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>91.68981500000001</v>
+        <v>237.6821393333333</v>
       </c>
       <c r="H19">
-        <v>275.069445</v>
+        <v>713.046418</v>
       </c>
       <c r="I19">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550865</v>
       </c>
       <c r="J19">
-        <v>0.3230554195767096</v>
+        <v>0.5719807796550868</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>7003.827683204217</v>
+        <v>25438.89302022264</v>
       </c>
       <c r="R19">
-        <v>63034.44914883796</v>
+        <v>228950.0371820038</v>
       </c>
       <c r="S19">
-        <v>0.0437824759711667</v>
+        <v>0.09241228664224763</v>
       </c>
       <c r="T19">
-        <v>0.0437824759711667</v>
+        <v>0.09241228664224767</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H20">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I20">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J20">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>1724.407267293178</v>
+        <v>1203.958642703002</v>
       </c>
       <c r="R20">
-        <v>15519.66540563861</v>
+        <v>10835.62778432702</v>
       </c>
       <c r="S20">
-        <v>0.0107796512363977</v>
+        <v>0.004373640437358443</v>
       </c>
       <c r="T20">
-        <v>0.0107796512363977</v>
+        <v>0.004373640437358444</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H21">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I21">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J21">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>2649.213279890929</v>
+        <v>991.4680433953581</v>
       </c>
       <c r="R21">
-        <v>23842.91951901837</v>
+        <v>8923.212390558223</v>
       </c>
       <c r="S21">
-        <v>0.01656081817196505</v>
+        <v>0.003601722329271321</v>
       </c>
       <c r="T21">
-        <v>0.01656081817196506</v>
+        <v>0.003601722329271321</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H22">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I22">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J22">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>1323.793353872626</v>
+        <v>572.0093055112578</v>
       </c>
       <c r="R22">
-        <v>11914.14018485363</v>
+        <v>5148.08374960132</v>
       </c>
       <c r="S22">
-        <v>0.008275325054856642</v>
+        <v>0.002077947647364913</v>
       </c>
       <c r="T22">
-        <v>0.008275325054856642</v>
+        <v>0.002077947647364914</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H23">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I23">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J23">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>2107.052398250978</v>
+        <v>578.1610766092163</v>
       </c>
       <c r="R23">
-        <v>18963.4715842588</v>
+        <v>5203.449689482946</v>
       </c>
       <c r="S23">
-        <v>0.01317165058438556</v>
+        <v>0.002100295287791331</v>
       </c>
       <c r="T23">
-        <v>0.01317165058438556</v>
+        <v>0.002100295287791331</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H24">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I24">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J24">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>1058.418215019765</v>
+        <v>435.4890980658509</v>
       </c>
       <c r="R24">
-        <v>9525.763935177887</v>
+        <v>3919.401882592658</v>
       </c>
       <c r="S24">
-        <v>0.006616406365575746</v>
+        <v>0.001582008435981979</v>
       </c>
       <c r="T24">
-        <v>0.006616406365575747</v>
+        <v>0.001582008435981979</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.18997866666666</v>
+        <v>6.807599333333333</v>
       </c>
       <c r="H25">
-        <v>54.569936</v>
+        <v>20.422798</v>
       </c>
       <c r="I25">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="J25">
-        <v>0.06408968313712265</v>
+        <v>0.01638245088663827</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>1389.461590063129</v>
+        <v>728.6108735429016</v>
       </c>
       <c r="R25">
-        <v>12505.15431056816</v>
+        <v>6557.497861886114</v>
       </c>
       <c r="S25">
-        <v>0.008685831723941944</v>
+        <v>0.002646836748870284</v>
       </c>
       <c r="T25">
-        <v>0.008685831723941946</v>
+        <v>0.002646836748870284</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H26">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I26">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J26">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>830.419582002614</v>
+        <v>1094.623461284686</v>
       </c>
       <c r="R26">
-        <v>7473.776238023525</v>
+        <v>9851.611151562172</v>
       </c>
       <c r="S26">
-        <v>0.005191136481299353</v>
+        <v>0.003976456718818511</v>
       </c>
       <c r="T26">
-        <v>0.005191136481299353</v>
+        <v>0.003976456718818511</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H27">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I27">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J27">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>1275.776683530277</v>
+        <v>901.4297858089341</v>
       </c>
       <c r="R27">
-        <v>11481.9901517725</v>
+        <v>8112.868072280408</v>
       </c>
       <c r="S27">
-        <v>0.007975162228103955</v>
+        <v>0.003274638864506142</v>
       </c>
       <c r="T27">
-        <v>0.007975162228103955</v>
+        <v>0.003274638864506143</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H28">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I28">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J28">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>637.4966891123894</v>
+        <v>520.0633839714378</v>
       </c>
       <c r="R28">
-        <v>5737.470202011504</v>
+        <v>4680.570455742941</v>
       </c>
       <c r="S28">
-        <v>0.003985132806692966</v>
+        <v>0.001889242840618116</v>
       </c>
       <c r="T28">
-        <v>0.003985132806692965</v>
+        <v>0.001889242840618117</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H29">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I29">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J29">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>1014.689281934983</v>
+        <v>525.6564938453453</v>
       </c>
       <c r="R29">
-        <v>9132.203537414851</v>
+        <v>4730.908444608108</v>
       </c>
       <c r="S29">
-        <v>0.006343047132792151</v>
+        <v>0.001909561023193052</v>
       </c>
       <c r="T29">
-        <v>0.00634304713279215</v>
+        <v>0.001909561023193052</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H30">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I30">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J30">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>509.700479910604</v>
+        <v>395.9409957856679</v>
       </c>
       <c r="R30">
-        <v>4587.304319195436</v>
+        <v>3563.468962071011</v>
       </c>
       <c r="S30">
-        <v>0.003186250436699596</v>
+        <v>0.001438341391933801</v>
       </c>
       <c r="T30">
-        <v>0.003186250436699595</v>
+        <v>0.001438341391933802</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>8.759714000000001</v>
+        <v>6.189380333333333</v>
       </c>
       <c r="H31">
-        <v>26.279142</v>
+        <v>18.568141</v>
       </c>
       <c r="I31">
-        <v>0.03086354882101112</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="J31">
-        <v>0.03086354882101111</v>
+        <v>0.01489471021496048</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>669.1204187744468</v>
+        <v>662.4434827234626</v>
       </c>
       <c r="R31">
-        <v>6022.083768970021</v>
+        <v>5961.991344511163</v>
       </c>
       <c r="S31">
-        <v>0.004182819735423095</v>
+        <v>0.002406469375890856</v>
       </c>
       <c r="T31">
-        <v>0.004182819735423095</v>
+        <v>0.002406469375890857</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H32">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I32">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J32">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>792.4830832286392</v>
+        <v>923.4503645184778</v>
       </c>
       <c r="R32">
-        <v>7132.347749057752</v>
+        <v>8311.053280666301</v>
       </c>
       <c r="S32">
-        <v>0.004953987036577167</v>
+        <v>0.003354633384319439</v>
       </c>
       <c r="T32">
-        <v>0.004953987036577168</v>
+        <v>0.00335463338431944</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H33">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I33">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J33">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>1217.494699772265</v>
+        <v>760.4675888420221</v>
       </c>
       <c r="R33">
-        <v>10957.45229795038</v>
+        <v>6844.2082995782</v>
       </c>
       <c r="S33">
-        <v>0.007610828656683231</v>
+        <v>0.002762563164456155</v>
       </c>
       <c r="T33">
-        <v>0.007610828656683233</v>
+        <v>0.002762563164456156</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H34">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I34">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J34">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>608.3735893095128</v>
+        <v>438.7378294792778</v>
       </c>
       <c r="R34">
-        <v>5475.362303785616</v>
+        <v>3948.6404653135</v>
       </c>
       <c r="S34">
-        <v>0.003803077868307904</v>
+        <v>0.001593810156220458</v>
       </c>
       <c r="T34">
-        <v>0.003803077868307904</v>
+        <v>0.001593810156220459</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H35">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I35">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J35">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>968.3346925992388</v>
+        <v>443.4563098832973</v>
       </c>
       <c r="R35">
-        <v>8715.01223339315</v>
+        <v>3991.106788949676</v>
       </c>
       <c r="S35">
-        <v>0.006053274342034819</v>
+        <v>0.001610951057880977</v>
       </c>
       <c r="T35">
-        <v>0.00605327434203482</v>
+        <v>0.001610951057880977</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H36">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I36">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J36">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>486.4155622011826</v>
+        <v>334.0252331673639</v>
       </c>
       <c r="R36">
-        <v>4377.740059810643</v>
+        <v>3006.227098506275</v>
       </c>
       <c r="S36">
-        <v>0.003040691265883883</v>
+        <v>0.001213418978910265</v>
       </c>
       <c r="T36">
-        <v>0.003040691265883883</v>
+        <v>0.001213418978910266</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>8.359539333333332</v>
+        <v>5.221508333333333</v>
       </c>
       <c r="H37">
-        <v>25.078618</v>
+        <v>15.664525</v>
       </c>
       <c r="I37">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451007</v>
       </c>
       <c r="J37">
-        <v>0.02945359292957464</v>
+        <v>0.01256553149451008</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>638.5526353350645</v>
+        <v>558.8530643002306</v>
       </c>
       <c r="R37">
-        <v>5746.973718015581</v>
+        <v>5029.677578702076</v>
       </c>
       <c r="S37">
-        <v>0.003991733760087633</v>
+        <v>0.00203015475272278</v>
       </c>
       <c r="T37">
-        <v>0.003991733760087633</v>
+        <v>0.002030154752722781</v>
       </c>
     </row>
   </sheetData>
